--- a/biology/Médecine/Campus_Érasme/Campus_Érasme.xlsx
+++ b/biology/Médecine/Campus_Érasme/Campus_Érasme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campus_%C3%89rasme</t>
+          <t>Campus_Érasme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campus Érasme est le nom donné à une extension médicale de l'Université libre de Bruxelles qui y a installé, dans la commune bruxelloise d'Anderlecht, un important hôpital moderne en 1970. Le nom d'Érasme provient de l'humaniste installé dans la commune au XVIe siècle. 
-Le campus est le principal site du Pôle Santé, constitué de la faculté de médecine (qui comporte les études de médecine, médecine vétérinaire, sciences biomédicales et sciences dentaires[1]), la faculté des sciences de la motricité (kinésithérapie et sciences de la motricité[2]), ainsi que l'École de santé publique et la Haute école Ilya Prigogine (soin infirmier, sage-femme, ergothérapie, podologie, hygiène bucco-dentaire et orthoptie[3]). Est aussi présent sur le site le musée de la médecine. Les études de pharmacie sont le seul cursus faisant partie du Pôle Santé à ne pas être présent sur le campus Érasme : il est dispensé sur le campus de la Plaine, à Ixelles. 
+Le campus est le principal site du Pôle Santé, constitué de la faculté de médecine (qui comporte les études de médecine, médecine vétérinaire, sciences biomédicales et sciences dentaires), la faculté des sciences de la motricité (kinésithérapie et sciences de la motricité), ainsi que l'École de santé publique et la Haute école Ilya Prigogine (soin infirmier, sage-femme, ergothérapie, podologie, hygiène bucco-dentaire et orthoptie). Est aussi présent sur le site le musée de la médecine. Les études de pharmacie sont le seul cursus faisant partie du Pôle Santé à ne pas être présent sur le campus Érasme : il est dispensé sur le campus de la Plaine, à Ixelles. 
 </t>
         </is>
       </c>
